--- a/Mid-Term Data.xlsx
+++ b/Mid-Term Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinaldo\Documents\University Files\TUM\Lectures &amp; Exercises\Intro to Python\Exercises\Mid-Term\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF427A-FAFC-4883-A794-B3BB2271F3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A6FEB-951A-4B18-B873-319B5AD8564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TertEduList" sheetId="1" r:id="rId1"/>
     <sheet name="TertEduType" sheetId="4" r:id="rId2"/>
-    <sheet name="TertEduProgram" sheetId="5" r:id="rId3"/>
-    <sheet name="LivingCostsByState" sheetId="3" r:id="rId4"/>
-    <sheet name="UniAssist" sheetId="2" r:id="rId5"/>
+    <sheet name="TertEduCost" sheetId="6" r:id="rId3"/>
+    <sheet name="TertEduProgram" sheetId="5" r:id="rId4"/>
+    <sheet name="LivingCostsByState" sheetId="3" r:id="rId5"/>
+    <sheet name="UniAssist" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TertEduProgram!$A$1:$D$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TertEduProgram!$A$1:$D$170</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="312">
   <si>
     <t>InstitutionName</t>
   </si>
@@ -908,13 +909,73 @@
   </si>
   <si>
     <t>Vocational Education Structural Engineering (Teaching at Vocational Schools)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>InstituteLocation(City)</t>
+  </si>
+  <si>
+    <t>TuitionFee</t>
+  </si>
+  <si>
+    <t>UniversityFee</t>
+  </si>
+  <si>
+    <t>SemesterTicket</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Garching</t>
+  </si>
+  <si>
+    <t>Weihenstephan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Straubing</t>
+  </si>
+  <si>
+    <t>Heilbronn</t>
+  </si>
+  <si>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>Chemnitz</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>Duisburg</t>
+  </si>
+  <si>
+    <t>Witten</t>
+  </si>
+  <si>
+    <t>Rostock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,8 +995,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,8 +1017,20 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -987,6 +1068,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -996,7 +1092,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1125,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,11 +2517,424 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B5F4C3-449A-40B9-A2C9-5656E34E75C4}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="17">
+        <v>120</v>
+      </c>
+      <c r="E2" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>312.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>335.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="17">
+        <v>120</v>
+      </c>
+      <c r="E17" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="17">
+        <v>500</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>209.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>215.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7AD04D-0629-4FB6-9284-9B261042E7CC}">
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,12 +5330,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC635BA7-4FF5-4C3C-81B7-F8594CB060FA}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5171,11 +5692,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A2696-500C-41B5-932F-A5BD862B0BA5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
